--- a/public/templates/RESULT_TEMPLATE.xlsx
+++ b/public/templates/RESULT_TEMPLATE.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STUDENT_NAME</t>
   </si>
   <si>
     <t>MAT_NO</t>
+  </si>
+  <si>
+    <t>REG_NO</t>
+  </si>
+  <si>
+    <t>BOOKLET_NUMBER</t>
   </si>
   <si>
     <t>SCORE</t>
@@ -283,11 +289,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.63"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" min="3" max="3" width="6.88"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="17.75"/>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+    <col customWidth="1" min="2" max="3" width="8.0"/>
+    <col customWidth="1" min="4" max="4" width="17.38"/>
+    <col customWidth="1" min="5" max="5" width="6.88"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
+    <col customWidth="1" min="7" max="7" width="17.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -306,6 +313,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
